--- a/biology/Botanique/Corylopsis_platypetala/Corylopsis_platypetala.xlsx
+++ b/biology/Botanique/Corylopsis_platypetala/Corylopsis_platypetala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corylopsis platypetala est un petit arbuste de la famille des Hamamelidacées originaire de chine.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste caduc ne dépassant pas 3 m de haut dans sa plus grande taille (il reste généralement plus petit).
 Les inflorescences de 2 à 2,5 cm de long portent de 8 à 20 fleurs, à pétales blancs à jaune-pâle et à très léger parfum. Les cinq étamines (caractéristiques du genre)sont plus courtes que les pétales. Les fleurs apparaissent avant les feuilles de mars à mai en France.
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce originaire de Chine est maintenant répandue dans toutes les régions tempérées.
 </t>
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est appréciée en arbuste d'ornement pour sa floraison en fin d'hivers, son léger parfum et son faible développement. Sa culture reste simple, avec comme principale exigence un sol acide, assez riche, mais sans contrainte sur l'ensoleillement et une bonne résistance au froid.
 			Fleurs
